--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.8998772653104</v>
+        <v>181.4725627376125</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.4171840213036</v>
+        <v>248.2987663419207</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.1485966340695</v>
+        <v>224.6014805718272</v>
       </c>
       <c r="AD2" t="n">
-        <v>139899.8772653104</v>
+        <v>181472.5627376125</v>
       </c>
       <c r="AE2" t="n">
-        <v>191417.1840213036</v>
+        <v>248298.7663419207</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.51509421320979e-06</v>
+        <v>4.251891556851374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>173148.5966340695</v>
+        <v>224601.4805718272</v>
       </c>
     </row>
     <row r="3">
@@ -4468,28 +4468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.7928099749675</v>
+        <v>164.280154592698</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.0105398441242</v>
+        <v>224.7753550425437</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.9758497257212</v>
+        <v>203.3231106315401</v>
       </c>
       <c r="AD3" t="n">
-        <v>122792.8099749675</v>
+        <v>164280.154592698</v>
       </c>
       <c r="AE3" t="n">
-        <v>168010.5398441242</v>
+        <v>224775.3550425437</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725844692561182e-06</v>
+        <v>4.608175698833064e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.430555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>151975.8497257212</v>
+        <v>203323.1106315401</v>
       </c>
     </row>
     <row r="4">
@@ -4574,28 +4574,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.0074038004187</v>
+        <v>149.2509459227118</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.4629359988893</v>
+        <v>204.2117286983874</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.0531400018538</v>
+        <v>184.7220479244328</v>
       </c>
       <c r="AD4" t="n">
-        <v>118007.4038004187</v>
+        <v>149250.9459227118</v>
       </c>
       <c r="AE4" t="n">
-        <v>161462.9359988893</v>
+        <v>204211.7286983874</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.893273332320572e-06</v>
+        <v>4.891222121519372e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>146053.1400018538</v>
+        <v>184722.0479244328</v>
       </c>
     </row>
     <row r="5">
@@ -4680,28 +4680,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.2783239160016</v>
+        <v>145.8509198797527</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.6782032167818</v>
+        <v>199.5596630678505</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.0611957519266</v>
+        <v>180.5139689084577</v>
       </c>
       <c r="AD5" t="n">
-        <v>104278.3239160016</v>
+        <v>145850.9198797527</v>
       </c>
       <c r="AE5" t="n">
-        <v>142678.2032167818</v>
+        <v>199559.6630678505</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.007063185774779e-06</v>
+        <v>5.083589514603959e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.736111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>129061.1957519266</v>
+        <v>180513.9689084577</v>
       </c>
     </row>
     <row r="6">
@@ -4786,28 +4786,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.8159274602423</v>
+        <v>133.144720928556</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.309043752749</v>
+        <v>182.1744811048963</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.0135841384949</v>
+        <v>164.7880043117862</v>
       </c>
       <c r="AD6" t="n">
-        <v>101815.9274602423</v>
+        <v>133144.720928556</v>
       </c>
       <c r="AE6" t="n">
-        <v>139309.043752749</v>
+        <v>182174.4811048963</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.100709317479042e-06</v>
+        <v>5.241902946615316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>126013.5841384949</v>
+        <v>164788.0043117862</v>
       </c>
     </row>
     <row r="7">
@@ -4892,28 +4892,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.9482191953121</v>
+        <v>133.2770126636258</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.4900511409709</v>
+        <v>182.3554884931182</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.1773164356305</v>
+        <v>164.9517366089217</v>
       </c>
       <c r="AD7" t="n">
-        <v>101948.2191953122</v>
+        <v>133277.0126636259</v>
       </c>
       <c r="AE7" t="n">
-        <v>139490.0511409709</v>
+        <v>182355.4884931182</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.097744945912132e-06</v>
+        <v>5.236891529400599e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>126177.3164356305</v>
+        <v>164951.7366089217</v>
       </c>
     </row>
   </sheetData>
@@ -5189,28 +5189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.1801149906802</v>
+        <v>275.5935840986375</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.2094617054836</v>
+        <v>377.0793000945954</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.8940323778989</v>
+        <v>341.091380927688</v>
       </c>
       <c r="AD2" t="n">
-        <v>209180.1149906802</v>
+        <v>275593.5840986375</v>
       </c>
       <c r="AE2" t="n">
-        <v>286209.4617054836</v>
+        <v>377079.3000945954</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.777034759799438e-06</v>
+        <v>2.876283630001431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.66840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>258894.0323778989</v>
+        <v>341091.380927688</v>
       </c>
     </row>
     <row r="3">
@@ -5295,28 +5295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.1680200655569</v>
+        <v>237.4131028337359</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.2503217394256</v>
+        <v>324.8390812238501</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.4622208577109</v>
+        <v>293.8368952264563</v>
       </c>
       <c r="AD3" t="n">
-        <v>182168.0200655569</v>
+        <v>237413.1028337359</v>
       </c>
       <c r="AE3" t="n">
-        <v>249250.3217394256</v>
+        <v>324839.0812238501</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.003392618069844e-06</v>
+        <v>3.242663296282597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.461805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>225462.2208577109</v>
+        <v>293836.8952264563</v>
       </c>
     </row>
     <row r="4">
@@ -5401,28 +5401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.9662210591706</v>
+        <v>217.2965551733702</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.6093290984302</v>
+        <v>297.314733235504</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.4592457599865</v>
+        <v>268.9394323794442</v>
       </c>
       <c r="AD4" t="n">
-        <v>161966.2210591706</v>
+        <v>217296.5551733702</v>
       </c>
       <c r="AE4" t="n">
-        <v>221609.3290984302</v>
+        <v>297314.733235504</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.170895249322522e-06</v>
+        <v>3.513780714553369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.732638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>200459.2457599865</v>
+        <v>268939.4323794441</v>
       </c>
     </row>
     <row r="5">
@@ -5507,28 +5507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.2532870424411</v>
+        <v>200.5005756714376</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.7926407398839</v>
+        <v>274.3337330946518</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.3885711675864</v>
+        <v>248.1517066379913</v>
       </c>
       <c r="AD5" t="n">
-        <v>156253.2870424411</v>
+        <v>200500.5756714375</v>
       </c>
       <c r="AE5" t="n">
-        <v>213792.6407398839</v>
+        <v>274333.7330946518</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.293366534337518e-06</v>
+        <v>3.712011025069991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.263888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>193388.5711675864</v>
+        <v>248151.7066379912</v>
       </c>
     </row>
     <row r="6">
@@ -5613,28 +5613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.9197234406031</v>
+        <v>196.1647167002311</v>
       </c>
       <c r="AB6" t="n">
-        <v>192.8125825507763</v>
+        <v>268.4012195656525</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.410820286344</v>
+        <v>242.7853838738627</v>
       </c>
       <c r="AD6" t="n">
-        <v>140919.7234406031</v>
+        <v>196164.7167002311</v>
       </c>
       <c r="AE6" t="n">
-        <v>192812.5825507763</v>
+        <v>268401.2195656525</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.391094601463429e-06</v>
+        <v>3.870192308872038e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.925347222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>174410.820286344</v>
+        <v>242785.3838738627</v>
       </c>
     </row>
     <row r="7">
@@ -5719,28 +5719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.6926422732184</v>
+        <v>182.0251822482354</v>
       </c>
       <c r="AB7" t="n">
-        <v>188.3971477287896</v>
+        <v>249.0548847362067</v>
       </c>
       <c r="AC7" t="n">
-        <v>170.4167883666645</v>
+        <v>225.2854360877816</v>
       </c>
       <c r="AD7" t="n">
-        <v>137692.6422732184</v>
+        <v>182025.1822482354</v>
       </c>
       <c r="AE7" t="n">
-        <v>188397.1477287896</v>
+        <v>249054.8847362067</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.472771243039051e-06</v>
+        <v>4.002392979580342e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.664930555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>170416.7883666645</v>
+        <v>225285.4360877817</v>
       </c>
     </row>
     <row r="8">
@@ -5825,28 +5825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.7940634368862</v>
+        <v>178.9560112113111</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.4311842886487</v>
+        <v>244.855509521219</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.8293309109847</v>
+        <v>221.4868433494508</v>
       </c>
       <c r="AD8" t="n">
-        <v>134794.0634368862</v>
+        <v>178956.011211311</v>
       </c>
       <c r="AE8" t="n">
-        <v>184431.1842886487</v>
+        <v>244855.509521219</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.543572224854068e-06</v>
+        <v>4.116990459376149e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.456597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>166829.3309109847</v>
+        <v>221486.8433494508</v>
       </c>
     </row>
     <row r="9">
@@ -5931,28 +5931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.9147699499376</v>
+        <v>165.1642644397514</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.4916079143439</v>
+        <v>225.9850331394551</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.2657421766122</v>
+        <v>204.4173387486766</v>
       </c>
       <c r="AD9" t="n">
-        <v>131914.7699499376</v>
+        <v>165164.2644397514</v>
       </c>
       <c r="AE9" t="n">
-        <v>180491.6079143439</v>
+        <v>225985.0331394551</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616447880719803e-06</v>
+        <v>4.234945977599039e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.248263888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>163265.7421766122</v>
+        <v>204417.3387486766</v>
       </c>
     </row>
     <row r="10">
@@ -6037,28 +6037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>131.7398308899976</v>
+        <v>164.9893253798114</v>
       </c>
       <c r="AB10" t="n">
-        <v>180.2522485747675</v>
+        <v>225.7456737998787</v>
       </c>
       <c r="AC10" t="n">
-        <v>163.0492269564619</v>
+        <v>204.2008235285263</v>
       </c>
       <c r="AD10" t="n">
-        <v>131739.8308899976</v>
+        <v>164989.3253798114</v>
       </c>
       <c r="AE10" t="n">
-        <v>180252.2485747675</v>
+        <v>225745.6737998787</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.620815615563419e-06</v>
+        <v>4.242015532182371e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>163049.2269564619</v>
+        <v>204200.8235285264</v>
       </c>
     </row>
     <row r="11">
@@ -6143,28 +6143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>129.5115441836478</v>
+        <v>162.7610386734616</v>
       </c>
       <c r="AB11" t="n">
-        <v>177.2034083980698</v>
+        <v>222.696833623181</v>
       </c>
       <c r="AC11" t="n">
-        <v>160.2913638071532</v>
+        <v>201.4429603792176</v>
       </c>
       <c r="AD11" t="n">
-        <v>129511.5441836478</v>
+        <v>162761.0386734616</v>
       </c>
       <c r="AE11" t="n">
-        <v>177203.4083980698</v>
+        <v>222696.833623181</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.674582431488333e-06</v>
+        <v>4.329041749103184e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>160291.3638071532</v>
+        <v>201442.9603792176</v>
       </c>
     </row>
     <row r="12">
@@ -6249,28 +6249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>116.1043984162547</v>
+        <v>160.3515975367001</v>
       </c>
       <c r="AB12" t="n">
-        <v>158.8591600776052</v>
+        <v>219.4001299628247</v>
       </c>
       <c r="AC12" t="n">
-        <v>143.6978648000737</v>
+        <v>198.460889489252</v>
       </c>
       <c r="AD12" t="n">
-        <v>116104.3984162547</v>
+        <v>160351.5975367001</v>
       </c>
       <c r="AE12" t="n">
-        <v>158859.1600776052</v>
+        <v>219400.1299628247</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.728502118132775e-06</v>
+        <v>4.416315400434415e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>143697.8648000737</v>
+        <v>198460.889489252</v>
       </c>
     </row>
     <row r="13">
@@ -6355,28 +6355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>116.0479298694307</v>
+        <v>160.2951289898761</v>
       </c>
       <c r="AB13" t="n">
-        <v>158.7818973206241</v>
+        <v>219.3228672058436</v>
       </c>
       <c r="AC13" t="n">
-        <v>143.6279758921799</v>
+        <v>198.3910005813582</v>
       </c>
       <c r="AD13" t="n">
-        <v>116047.9298694307</v>
+        <v>160295.1289898761</v>
       </c>
       <c r="AE13" t="n">
-        <v>158781.8973206241</v>
+        <v>219322.8672058436</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.721884999844696e-06</v>
+        <v>4.405605025240667e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>143627.9758921799</v>
+        <v>198391.0005813582</v>
       </c>
     </row>
     <row r="14">
@@ -6461,28 +6461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.139160336619</v>
+        <v>160.3863594570643</v>
       </c>
       <c r="AB14" t="n">
-        <v>158.9067228706352</v>
+        <v>219.4476927558547</v>
       </c>
       <c r="AC14" t="n">
-        <v>143.7408882668917</v>
+        <v>198.50391295607</v>
       </c>
       <c r="AD14" t="n">
-        <v>116139.160336619</v>
+        <v>160386.3594570643</v>
       </c>
       <c r="AE14" t="n">
-        <v>158906.7228706352</v>
+        <v>219447.6927558547</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.721229839618153e-06</v>
+        <v>4.404544592053166e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.970486111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>143740.8882668917</v>
+        <v>198503.91295607</v>
       </c>
     </row>
   </sheetData>
@@ -6758,28 +6758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.5671453543329</v>
+        <v>147.2567876880686</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.8098696843805</v>
+        <v>201.4832334256976</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.8939803671801</v>
+        <v>182.2539564111005</v>
       </c>
       <c r="AD2" t="n">
-        <v>106567.1453543329</v>
+        <v>147256.7876880686</v>
       </c>
       <c r="AE2" t="n">
-        <v>145809.8696843805</v>
+        <v>201483.2334256977</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.71987746430357e-06</v>
+        <v>5.829950155618839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.730902777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>131893.9803671801</v>
+        <v>182253.9564111005</v>
       </c>
     </row>
   </sheetData>
@@ -7055,28 +7055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.07810699772595</v>
+        <v>126.5057420434714</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.8805958429646</v>
+        <v>173.0907373032509</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.2484828362346</v>
+        <v>156.5712002694524</v>
       </c>
       <c r="AD2" t="n">
-        <v>89078.10699772595</v>
+        <v>126505.7420434714</v>
       </c>
       <c r="AE2" t="n">
-        <v>121880.5958429646</v>
+        <v>173090.7373032509</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.410717658923217e-06</v>
+        <v>6.284017182853975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>110248.4828362346</v>
+        <v>156571.2002694524</v>
       </c>
     </row>
   </sheetData>
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.6377784937654</v>
+        <v>185.5096352958764</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.5315453866372</v>
+        <v>253.8224671192059</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.7748505287485</v>
+        <v>229.5980070994928</v>
       </c>
       <c r="AD2" t="n">
-        <v>143637.7784937655</v>
+        <v>185509.6352958764</v>
       </c>
       <c r="AE2" t="n">
-        <v>196531.5453866372</v>
+        <v>253822.4671192059</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.432832087054379e-06</v>
+        <v>4.091242657743374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.263888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>177774.8505287485</v>
+        <v>229598.0070994928</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.4146603179735</v>
+        <v>167.371768466105</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.597871151297</v>
+        <v>229.005437536515</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.2208111677897</v>
+        <v>207.1494799892463</v>
       </c>
       <c r="AD3" t="n">
-        <v>125414.6603179735</v>
+        <v>167371.768466105</v>
       </c>
       <c r="AE3" t="n">
-        <v>171597.871151297</v>
+        <v>229005.437536515</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.660063190301104e-06</v>
+        <v>4.473372434687699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.560763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>155220.8111677897</v>
+        <v>207149.4799892463</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.8181374081314</v>
+        <v>152.2860580277811</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.3087057217752</v>
+        <v>208.3645029802371</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.5318748599604</v>
+        <v>188.4784872572793</v>
       </c>
       <c r="AD4" t="n">
-        <v>120818.1374081314</v>
+        <v>152286.0580277811</v>
       </c>
       <c r="AE4" t="n">
-        <v>165308.7057217752</v>
+        <v>208364.5029802371</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.816206397944954e-06</v>
+        <v>4.735955189670543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>149531.8748599604</v>
+        <v>188478.4872572793</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.9682947437582</v>
+        <v>148.8400620373181</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.358739976454</v>
+        <v>203.6495392394744</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.3904672489226</v>
+        <v>184.2135130384404</v>
       </c>
       <c r="AD5" t="n">
-        <v>106968.2947437582</v>
+        <v>148840.0620373181</v>
       </c>
       <c r="AE5" t="n">
-        <v>146358.739976454</v>
+        <v>203649.5392394744</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.928964910748731e-06</v>
+        <v>4.925578813948319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.866319444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>132390.4672489226</v>
+        <v>184213.5130384404</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.139132011153</v>
+        <v>146.010899304713</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.4877547118547</v>
+        <v>199.7785539748751</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.8889233850134</v>
+        <v>180.7119691745312</v>
       </c>
       <c r="AD6" t="n">
-        <v>104139.132011153</v>
+        <v>146010.8993047129</v>
       </c>
       <c r="AE6" t="n">
-        <v>142487.7547118547</v>
+        <v>199778.5539748751</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.022938059155658e-06</v>
+        <v>5.083611485208575e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>128888.9233850134</v>
+        <v>180711.9691745312</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.1916785402521</v>
+        <v>146.063445833812</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.5596511911572</v>
+        <v>199.8504504541776</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.9539581652387</v>
+        <v>180.7770039547565</v>
       </c>
       <c r="AD7" t="n">
-        <v>104191.6785402521</v>
+        <v>146063.445833812</v>
       </c>
       <c r="AE7" t="n">
-        <v>142559.6511911572</v>
+        <v>199850.4504541776</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.014413997382489e-06</v>
+        <v>5.069276749437372e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>128953.9581652387</v>
+        <v>180777.0039547565</v>
       </c>
     </row>
   </sheetData>
@@ -8179,28 +8179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.00943957888443</v>
+        <v>122.2360731561628</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.2596185186558</v>
+        <v>167.248787967141</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.1141391372653</v>
+        <v>151.2867983787516</v>
       </c>
       <c r="AD2" t="n">
-        <v>93009.43957888443</v>
+        <v>122236.0731561628</v>
       </c>
       <c r="AE2" t="n">
-        <v>127259.6185186558</v>
+        <v>167248.787967141</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.325498062453458e-06</v>
+        <v>5.940759599442451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>115114.1391372653</v>
+        <v>151286.7983787516</v>
       </c>
     </row>
     <row r="3">
@@ -8285,28 +8285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.05240337213954</v>
+        <v>122.2790369494179</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.3184034760162</v>
+        <v>167.3075729245014</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.1673137408005</v>
+        <v>151.3399729822867</v>
       </c>
       <c r="AD3" t="n">
-        <v>93052.40337213954</v>
+        <v>122279.0369494179</v>
       </c>
       <c r="AE3" t="n">
-        <v>127318.4034760162</v>
+        <v>167307.5729245014</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.324642771228064e-06</v>
+        <v>5.939231684085968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>115167.3137408005</v>
+        <v>151339.9729822867</v>
       </c>
     </row>
   </sheetData>
@@ -8582,28 +8582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.6976676530445</v>
+        <v>236.1913472274699</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.6067648181426</v>
+        <v>323.1674213033045</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.8800841057571</v>
+        <v>292.3247761825376</v>
       </c>
       <c r="AD2" t="n">
-        <v>181697.6676530445</v>
+        <v>236191.3472274699</v>
       </c>
       <c r="AE2" t="n">
-        <v>248606.7648181426</v>
+        <v>323167.4213033046</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967704618933986e-06</v>
+        <v>3.220915702867137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.809027777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>224880.0841057571</v>
+        <v>292324.7761825375</v>
       </c>
     </row>
     <row r="3">
@@ -8688,28 +8688,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.5534176567091</v>
+        <v>212.9617563765629</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.9397809209248</v>
+        <v>291.383670283889</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.2353527067887</v>
+        <v>263.5744217516303</v>
       </c>
       <c r="AD3" t="n">
-        <v>158553.4176567091</v>
+        <v>212961.7563765629</v>
       </c>
       <c r="AE3" t="n">
-        <v>216939.7809209248</v>
+        <v>291383.670283889</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.190417068007021e-06</v>
+        <v>3.585471448450515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.810763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>196235.3527067887</v>
+        <v>263574.4217516303</v>
       </c>
     </row>
     <row r="4">
@@ -8794,28 +8794,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.9769590517074</v>
+        <v>194.4866513652271</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.5733360078032</v>
+        <v>266.1052165432834</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.8582667467753</v>
+        <v>240.7085081574874</v>
       </c>
       <c r="AD4" t="n">
-        <v>150976.9590517074</v>
+        <v>194486.6513652271</v>
       </c>
       <c r="AE4" t="n">
-        <v>206573.3360078032</v>
+        <v>266105.2165432834</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360369544867786e-06</v>
+        <v>3.863664931453344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>186858.2667467753</v>
+        <v>240708.5081574874</v>
       </c>
     </row>
     <row r="5">
@@ -8900,28 +8900,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.1171970716055</v>
+        <v>178.7121407311458</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.8733099833212</v>
+        <v>244.5218351714508</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.2292607498852</v>
+        <v>221.1850144113096</v>
       </c>
       <c r="AD5" t="n">
-        <v>135117.1970716055</v>
+        <v>178712.1407311458</v>
       </c>
       <c r="AE5" t="n">
-        <v>184873.3099833212</v>
+        <v>244521.8351714508</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.490991052135838e-06</v>
+        <v>4.077477949852301e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.751736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>167229.2607498852</v>
+        <v>221185.0144113096</v>
       </c>
     </row>
     <row r="6">
@@ -9006,28 +9006,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.8909422769821</v>
+        <v>175.3152937359302</v>
       </c>
       <c r="AB6" t="n">
-        <v>180.4590058410035</v>
+        <v>239.8741192542862</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.2362515993941</v>
+        <v>216.9808699781674</v>
       </c>
       <c r="AD6" t="n">
-        <v>131890.9422769821</v>
+        <v>175315.2937359302</v>
       </c>
       <c r="AE6" t="n">
-        <v>180459.0058410035</v>
+        <v>239874.1192542862</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.574144147826479e-06</v>
+        <v>4.213590407522444e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>163236.2515993941</v>
+        <v>216980.8699781674</v>
       </c>
     </row>
     <row r="7">
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.8139990903977</v>
+        <v>161.5102963436039</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.2489964279678</v>
+        <v>220.9855127886133</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.4280395759518</v>
+        <v>199.8949656032466</v>
       </c>
       <c r="AD7" t="n">
-        <v>128813.9990903977</v>
+        <v>161510.2963436039</v>
       </c>
       <c r="AE7" t="n">
-        <v>176248.9964279678</v>
+        <v>220985.5127886133</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.665434685501819e-06</v>
+        <v>4.363022961317528e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>159428.0395759518</v>
+        <v>199894.9656032466</v>
       </c>
     </row>
     <row r="8">
@@ -9218,28 +9218,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.2763665821581</v>
+        <v>158.9726638353644</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.7768956777511</v>
+        <v>217.5134120383967</v>
       </c>
       <c r="AC8" t="n">
-        <v>156.2873112482107</v>
+        <v>196.7542372755056</v>
       </c>
       <c r="AD8" t="n">
-        <v>126276.3665821582</v>
+        <v>158972.6638353644</v>
       </c>
       <c r="AE8" t="n">
-        <v>172776.8956777511</v>
+        <v>217513.4120383967</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.733624670657754e-06</v>
+        <v>4.474642455348097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.057291666666668</v>
       </c>
       <c r="AH8" t="n">
-        <v>156287.3112482107</v>
+        <v>196754.2372755056</v>
       </c>
     </row>
     <row r="9">
@@ -9324,28 +9324,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>113.9826587510698</v>
+        <v>157.4922615560385</v>
       </c>
       <c r="AB9" t="n">
-        <v>155.9561022631528</v>
+        <v>215.4878603290848</v>
       </c>
       <c r="AC9" t="n">
-        <v>141.0718707489646</v>
+        <v>194.9220013784501</v>
       </c>
       <c r="AD9" t="n">
-        <v>113982.6587510698</v>
+        <v>157492.2615560385</v>
       </c>
       <c r="AE9" t="n">
-        <v>155956.1022631528</v>
+        <v>215487.8603290848</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.773111274386786e-06</v>
+        <v>4.539277675888786e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>141071.8707489645</v>
+        <v>194922.0013784501</v>
       </c>
     </row>
     <row r="10">
@@ -9430,28 +9430,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>111.8757723186755</v>
+        <v>155.3853751236442</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.073367297083</v>
+        <v>212.605125363015</v>
       </c>
       <c r="AC10" t="n">
-        <v>138.4642599621116</v>
+        <v>192.3143905915971</v>
       </c>
       <c r="AD10" t="n">
-        <v>111875.7723186755</v>
+        <v>155385.3751236442</v>
       </c>
       <c r="AE10" t="n">
-        <v>153073.367297083</v>
+        <v>212605.125363015</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.82569337901469e-06</v>
+        <v>4.625348788827259e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>138464.2599621116</v>
+        <v>192314.3905915971</v>
       </c>
     </row>
     <row r="11">
@@ -9536,28 +9536,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>111.9832205677795</v>
+        <v>155.4928233727481</v>
       </c>
       <c r="AB11" t="n">
-        <v>153.2203827317892</v>
+        <v>212.7521407977212</v>
       </c>
       <c r="AC11" t="n">
-        <v>138.5972444500669</v>
+        <v>192.4473750795525</v>
       </c>
       <c r="AD11" t="n">
-        <v>111983.2205677795</v>
+        <v>155492.8233727482</v>
       </c>
       <c r="AE11" t="n">
-        <v>153220.3827317893</v>
+        <v>212752.1407977212</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.82229166146371e-06</v>
+        <v>4.619780551922572e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>138597.2444500669</v>
+        <v>192447.3750795525</v>
       </c>
     </row>
     <row r="12">
@@ -9642,28 +9642,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>112.0156169630668</v>
+        <v>155.5252197680355</v>
       </c>
       <c r="AB12" t="n">
-        <v>153.2647089090495</v>
+        <v>212.7964669749814</v>
       </c>
       <c r="AC12" t="n">
-        <v>138.6373401991816</v>
+        <v>192.4874708286672</v>
       </c>
       <c r="AD12" t="n">
-        <v>112015.6169630668</v>
+        <v>155525.2197680355</v>
       </c>
       <c r="AE12" t="n">
-        <v>153264.7089090495</v>
+        <v>212796.4669749814</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.822091560431299e-06</v>
+        <v>4.619453008575237e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>138637.3401991816</v>
+        <v>192487.4708286672</v>
       </c>
     </row>
   </sheetData>
@@ -9939,28 +9939,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.4269780751023</v>
+        <v>144.6987711152333</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.5640395642789</v>
+        <v>197.9832422990197</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.6217873673167</v>
+        <v>179.0879995252831</v>
       </c>
       <c r="AD2" t="n">
-        <v>114426.9780751023</v>
+        <v>144698.7711152333</v>
       </c>
       <c r="AE2" t="n">
-        <v>156564.0395642789</v>
+        <v>197983.2422990197</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.932660476855635e-06</v>
+        <v>5.078755041819672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>141621.7873673167</v>
+        <v>179087.9995252831</v>
       </c>
     </row>
     <row r="3">
@@ -10045,28 +10045,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.38663901562271</v>
+        <v>139.6635695364911</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.9851841301798</v>
+        <v>191.093857361572</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.0069490132364</v>
+        <v>172.8561278169508</v>
       </c>
       <c r="AD3" t="n">
-        <v>99386.6390156227</v>
+        <v>139663.5695364911</v>
       </c>
       <c r="AE3" t="n">
-        <v>135985.1841301798</v>
+        <v>191093.857361572</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.134887111798089e-06</v>
+        <v>5.428969309686582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>123006.9490132364</v>
+        <v>172856.1278169508</v>
       </c>
     </row>
     <row r="4">
@@ -10151,28 +10151,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.17401611818963</v>
+        <v>128.5310605043412</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.3260199847661</v>
+        <v>175.8618673721561</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.506133165209</v>
+        <v>159.0778575738876</v>
       </c>
       <c r="AD4" t="n">
-        <v>98174.01611818963</v>
+        <v>128531.0605043412</v>
       </c>
       <c r="AE4" t="n">
-        <v>134326.0199847661</v>
+        <v>175861.8673721561</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.183445650648152e-06</v>
+        <v>5.513062550603639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>121506.133165209</v>
+        <v>159077.8575738876</v>
       </c>
     </row>
   </sheetData>
@@ -10448,28 +10448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.2383597887852</v>
+        <v>205.3166425145448</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.2992401453452</v>
+        <v>280.9232882192615</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.4194530157525</v>
+        <v>254.1123638700091</v>
       </c>
       <c r="AD2" t="n">
-        <v>152238.3597887852</v>
+        <v>205316.6425145448</v>
       </c>
       <c r="AE2" t="n">
-        <v>208299.2401453452</v>
+        <v>280923.2882192615</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.258358047447554e-06</v>
+        <v>3.760816899941125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>188419.4530157525</v>
+        <v>254112.3638700091</v>
       </c>
     </row>
     <row r="3">
@@ -10554,28 +10554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.6158355415047</v>
+        <v>185.6087774126926</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.4508367855565</v>
+        <v>253.9581177372752</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.1334235906427</v>
+        <v>229.7207114129606</v>
       </c>
       <c r="AD3" t="n">
-        <v>132615.8355415047</v>
+        <v>185608.7774126926</v>
       </c>
       <c r="AE3" t="n">
-        <v>181450.8367855565</v>
+        <v>253958.1177372752</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.483563778378453e-06</v>
+        <v>4.135849335477983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.977430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>164133.4235906427</v>
+        <v>229720.7114129605</v>
       </c>
     </row>
     <row r="4">
@@ -10660,28 +10660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.9957227956757</v>
+        <v>169.3560294593484</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.7611505848417</v>
+        <v>231.720390966886</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.1776302483793</v>
+        <v>209.6053220746846</v>
       </c>
       <c r="AD4" t="n">
-        <v>126995.7227956757</v>
+        <v>169356.0294593484</v>
       </c>
       <c r="AE4" t="n">
-        <v>173761.1505848417</v>
+        <v>231720.390966886</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.65219983863051e-06</v>
+        <v>4.416676968656976e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>157177.6302483793</v>
+        <v>209605.3220746846</v>
       </c>
     </row>
     <row r="5">
@@ -10766,28 +10766,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.5301658674349</v>
+        <v>155.4284295241847</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.0194227060438</v>
+        <v>212.6640342932605</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.8884462232755</v>
+        <v>192.3676773362193</v>
       </c>
       <c r="AD5" t="n">
-        <v>123530.1658674349</v>
+        <v>155428.4295241847</v>
       </c>
       <c r="AE5" t="n">
-        <v>169019.4227060438</v>
+        <v>212664.0342932605</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.758125291394765e-06</v>
+        <v>4.593073370166456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>152888.4462232755</v>
+        <v>192367.6773362193</v>
       </c>
     </row>
     <row r="6">
@@ -10872,28 +10872,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.0354645600336</v>
+        <v>151.4810225697269</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.1871329161764</v>
+        <v>207.26301795087</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.9489223361532</v>
+        <v>187.4821264131707</v>
       </c>
       <c r="AD6" t="n">
-        <v>109035.4645600336</v>
+        <v>151481.0225697269</v>
       </c>
       <c r="AE6" t="n">
-        <v>149187.1329161764</v>
+        <v>207263.01795087</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.883135588665683e-06</v>
+        <v>4.801251537120317e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>134948.9223361532</v>
+        <v>187482.1264131707</v>
       </c>
     </row>
     <row r="7">
@@ -10978,28 +10978,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.3096691258181</v>
+        <v>149.7552271355114</v>
       </c>
       <c r="AB7" t="n">
-        <v>146.8258234663628</v>
+        <v>204.9017085010564</v>
       </c>
       <c r="AC7" t="n">
-        <v>132.8129729461105</v>
+        <v>185.346177023128</v>
       </c>
       <c r="AD7" t="n">
-        <v>107309.6691258181</v>
+        <v>149755.2271355114</v>
       </c>
       <c r="AE7" t="n">
-        <v>146825.8234663628</v>
+        <v>204901.7085010564</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.934819904411e-06</v>
+        <v>4.887320815787873e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>132812.9729461105</v>
+        <v>185346.177023128</v>
       </c>
     </row>
     <row r="8">
@@ -11084,28 +11084,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>106.6008409684081</v>
+        <v>149.0463989781015</v>
       </c>
       <c r="AB8" t="n">
-        <v>145.8559735101037</v>
+        <v>203.9318585447973</v>
       </c>
       <c r="AC8" t="n">
-        <v>131.9356841084835</v>
+        <v>184.468888185501</v>
       </c>
       <c r="AD8" t="n">
-        <v>106600.8409684081</v>
+        <v>149046.3989781014</v>
       </c>
       <c r="AE8" t="n">
-        <v>145855.9735101037</v>
+        <v>203931.8585447973</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.958698788805701e-06</v>
+        <v>4.927086039059191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>131935.6841084835</v>
+        <v>184468.888185501</v>
       </c>
     </row>
     <row r="9">
@@ -11190,28 +11190,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>106.6631102174892</v>
+        <v>149.1086682271825</v>
       </c>
       <c r="AB9" t="n">
-        <v>145.9411730438218</v>
+        <v>204.0170580785153</v>
       </c>
       <c r="AC9" t="n">
-        <v>132.0127523182818</v>
+        <v>184.5459563952993</v>
       </c>
       <c r="AD9" t="n">
-        <v>106663.1102174892</v>
+        <v>149108.6682271825</v>
       </c>
       <c r="AE9" t="n">
-        <v>145941.1730438218</v>
+        <v>204017.0580785153</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.957945439680438e-06</v>
+        <v>4.925831495686388e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>132012.7523182818</v>
+        <v>184545.9563952993</v>
       </c>
     </row>
   </sheetData>
@@ -11487,28 +11487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.44101816487422</v>
+        <v>122.8171397611636</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.2724145617103</v>
+        <v>168.0438289309521</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.9846613123478</v>
+        <v>152.0059617488238</v>
       </c>
       <c r="AD2" t="n">
-        <v>86441.01816487423</v>
+        <v>122817.1397611636</v>
       </c>
       <c r="AE2" t="n">
-        <v>118272.4145617103</v>
+        <v>168043.8289309521</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.429909175476648e-06</v>
+        <v>6.490126241195355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>106984.6613123478</v>
+        <v>152005.9617488238</v>
       </c>
     </row>
   </sheetData>
@@ -11784,28 +11784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.2627451163652</v>
+        <v>118.8379783078538</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.5014699794313</v>
+        <v>162.5993646823227</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.7146630200286</v>
+        <v>147.0811095267283</v>
       </c>
       <c r="AD2" t="n">
-        <v>90262.7451163652</v>
+        <v>118837.9783078538</v>
       </c>
       <c r="AE2" t="n">
-        <v>123501.4699794313</v>
+        <v>162599.3646823227</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.393979727637569e-06</v>
+        <v>6.183093976954726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>111714.6630200286</v>
+        <v>147081.1095267283</v>
       </c>
     </row>
   </sheetData>
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.6473998847739</v>
+        <v>252.3696578851336</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.4298921101085</v>
+        <v>345.3032996818022</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.6204427579363</v>
+        <v>312.3480373964989</v>
       </c>
       <c r="AD2" t="n">
-        <v>197647.3998847739</v>
+        <v>252369.6578851336</v>
       </c>
       <c r="AE2" t="n">
-        <v>270429.8921101085</v>
+        <v>345303.2996818022</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.906040412915519e-06</v>
+        <v>3.10787357187015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.06076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>244620.4427579363</v>
+        <v>312348.0373964988</v>
       </c>
     </row>
     <row r="3">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.8993206957192</v>
+        <v>216.6214891875279</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.5177930697202</v>
+        <v>296.3910781718656</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.376445801385</v>
+        <v>268.103929658721</v>
       </c>
       <c r="AD3" t="n">
-        <v>161899.3206957192</v>
+        <v>216621.4891875279</v>
       </c>
       <c r="AE3" t="n">
-        <v>221517.7930697202</v>
+        <v>296391.0781718655</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.138130267034093e-06</v>
+        <v>3.48630517228464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.975694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>200376.445801385</v>
+        <v>268103.929658721</v>
       </c>
     </row>
     <row r="4">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.5263318464697</v>
+        <v>198.2870879775534</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.4297444528708</v>
+        <v>271.3051415796958</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.2511863858592</v>
+        <v>245.4121596465668</v>
       </c>
       <c r="AD4" t="n">
-        <v>154526.3318464697</v>
+        <v>198287.0879775534</v>
       </c>
       <c r="AE4" t="n">
-        <v>211429.7444528707</v>
+        <v>271305.1415796958</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.297629892572307e-06</v>
+        <v>3.746375560915677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.350694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>191251.1863858592</v>
+        <v>245412.1596465668</v>
       </c>
     </row>
     <row r="5">
@@ -12399,28 +12399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.7599771204921</v>
+        <v>193.3968047577292</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.8575223543189</v>
+        <v>264.6140403342665</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.7377868875824</v>
+        <v>239.3596477129796</v>
       </c>
       <c r="AD5" t="n">
-        <v>138759.9771204921</v>
+        <v>193396.8047577292</v>
       </c>
       <c r="AE5" t="n">
-        <v>189857.5223543189</v>
+        <v>264614.0403342665</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.408581350015834e-06</v>
+        <v>3.927286259352424e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.960069444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>171737.7868875824</v>
+        <v>239359.6477129796</v>
       </c>
     </row>
     <row r="6">
@@ -12505,28 +12505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.9248793403932</v>
+        <v>178.7708868174975</v>
       </c>
       <c r="AB6" t="n">
-        <v>184.6101723790171</v>
+        <v>244.6022141584915</v>
       </c>
       <c r="AC6" t="n">
-        <v>166.9912366292199</v>
+        <v>221.2577221406397</v>
       </c>
       <c r="AD6" t="n">
-        <v>134924.8793403932</v>
+        <v>178770.8868174975</v>
       </c>
       <c r="AE6" t="n">
-        <v>184610.1723790171</v>
+        <v>244602.2141584915</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.510517034777234e-06</v>
+        <v>4.093496387193235e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>166991.2366292198</v>
+        <v>221257.7221406397</v>
       </c>
     </row>
     <row r="7">
@@ -12611,28 +12611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.8318017547406</v>
+        <v>175.5072170312527</v>
       </c>
       <c r="AB7" t="n">
-        <v>180.3780871693771</v>
+        <v>240.1367171740045</v>
       </c>
       <c r="AC7" t="n">
-        <v>163.1630556922176</v>
+        <v>217.2184059209864</v>
       </c>
       <c r="AD7" t="n">
-        <v>131831.8017547406</v>
+        <v>175507.2170312527</v>
       </c>
       <c r="AE7" t="n">
-        <v>180378.0871693771</v>
+        <v>240136.7171740045</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.596984482093808e-06</v>
+        <v>4.234484947835137e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>163163.0556922176</v>
+        <v>217218.4059209864</v>
       </c>
     </row>
     <row r="8">
@@ -12717,28 +12717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>128.2223222001412</v>
+        <v>161.1069173165205</v>
       </c>
       <c r="AB8" t="n">
-        <v>175.4394380037771</v>
+        <v>220.4335918079313</v>
       </c>
       <c r="AC8" t="n">
-        <v>158.6957442715433</v>
+        <v>199.3957191863348</v>
       </c>
       <c r="AD8" t="n">
-        <v>128222.3222001412</v>
+        <v>161106.9173165204</v>
       </c>
       <c r="AE8" t="n">
-        <v>175439.4380037771</v>
+        <v>220433.5918079313</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.685993139847747e-06</v>
+        <v>4.379617051659717e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>158695.7442715433</v>
+        <v>199395.7191863348</v>
       </c>
     </row>
     <row r="9">
@@ -12823,28 +12823,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.715176973627</v>
+        <v>160.5997720900063</v>
       </c>
       <c r="AB9" t="n">
-        <v>174.7455395311925</v>
+        <v>219.7396933353465</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.0680704952892</v>
+        <v>198.7680454100807</v>
       </c>
       <c r="AD9" t="n">
-        <v>127715.176973627</v>
+        <v>160599.7720900063</v>
       </c>
       <c r="AE9" t="n">
-        <v>174745.5395311925</v>
+        <v>219739.6933353466</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.705637801402675e-06</v>
+        <v>4.411648442002331e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>158068.0704952892</v>
+        <v>198768.0454100807</v>
       </c>
     </row>
     <row r="10">
@@ -12929,28 +12929,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>114.5585692432026</v>
+        <v>158.3192358657352</v>
       </c>
       <c r="AB10" t="n">
-        <v>156.7440884058663</v>
+        <v>216.619363063143</v>
       </c>
       <c r="AC10" t="n">
-        <v>141.7846526001632</v>
+        <v>195.9455150796442</v>
       </c>
       <c r="AD10" t="n">
-        <v>114558.5692432026</v>
+        <v>158319.2358657352</v>
       </c>
       <c r="AE10" t="n">
-        <v>156744.0884058663</v>
+        <v>216619.363063143</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.7577878590738e-06</v>
+        <v>4.49668115427294e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>141784.6526001632</v>
+        <v>195945.5150796442</v>
       </c>
     </row>
     <row r="11">
@@ -13035,28 +13035,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.4612477017758</v>
+        <v>157.2219143243084</v>
       </c>
       <c r="AB11" t="n">
-        <v>155.2426846624771</v>
+        <v>215.1179593197539</v>
       </c>
       <c r="AC11" t="n">
-        <v>140.4265407228092</v>
+        <v>194.5874032022903</v>
       </c>
       <c r="AD11" t="n">
-        <v>113461.2477017758</v>
+        <v>157221.9143243085</v>
       </c>
       <c r="AE11" t="n">
-        <v>155242.6846624771</v>
+        <v>215117.9593197539</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.779266611640043e-06</v>
+        <v>4.531703101869138e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>140426.5407228092</v>
+        <v>194587.4032022903</v>
       </c>
     </row>
     <row r="12">
@@ -13141,28 +13141,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>113.3911434582842</v>
+        <v>157.1518100808168</v>
       </c>
       <c r="AB12" t="n">
-        <v>155.146764943751</v>
+        <v>215.0220396010277</v>
       </c>
       <c r="AC12" t="n">
-        <v>140.3397754474141</v>
+        <v>194.5006379268951</v>
       </c>
       <c r="AD12" t="n">
-        <v>113391.1434582842</v>
+        <v>157151.8100808168</v>
       </c>
       <c r="AE12" t="n">
-        <v>155146.764943751</v>
+        <v>215022.0396010277</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.778294322429226e-06</v>
+        <v>4.530117746216637e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>140339.7754474141</v>
+        <v>194500.6379268951</v>
       </c>
     </row>
   </sheetData>
@@ -13438,28 +13438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.68181398760848</v>
+        <v>119.0898533973611</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.8113467308513</v>
+        <v>162.9439912917311</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.7086497797353</v>
+        <v>147.3928454562214</v>
       </c>
       <c r="AD2" t="n">
-        <v>92681.81398760848</v>
+        <v>119089.8533973611</v>
       </c>
       <c r="AE2" t="n">
-        <v>126811.3467308513</v>
+        <v>162943.9912917311</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.382371054120803e-06</v>
+        <v>6.628357464541304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.178819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>114708.6497797353</v>
+        <v>147392.8454562213</v>
       </c>
     </row>
   </sheetData>
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.270299797523</v>
+        <v>158.8025335569946</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.8226419002801</v>
+        <v>217.2806322859131</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.3785160768663</v>
+        <v>196.5436736958905</v>
       </c>
       <c r="AD2" t="n">
-        <v>118270.299797523</v>
+        <v>158802.5335569946</v>
       </c>
       <c r="AE2" t="n">
-        <v>161822.6419002801</v>
+        <v>217280.6322859131</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.810933380335107e-06</v>
+        <v>4.836158055808769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>146378.5160768663</v>
+        <v>196543.6736958905</v>
       </c>
     </row>
     <row r="3">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.5421477811816</v>
+        <v>143.1596328866737</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.3026904344369</v>
+        <v>195.8773254727191</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.9123985754748</v>
+        <v>177.1830684452112</v>
       </c>
       <c r="AD3" t="n">
-        <v>102542.1477811816</v>
+        <v>143159.6328866737</v>
       </c>
       <c r="AE3" t="n">
-        <v>140302.6904344369</v>
+        <v>195877.3254727192</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.02766338642784e-06</v>
+        <v>5.209037958347014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.857638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>126912.3985754748</v>
+        <v>177183.0684452112</v>
       </c>
     </row>
     <row r="4">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.50911096682211</v>
+        <v>130.1215712914416</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.1527556568919</v>
+        <v>178.0380743994493</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.1585277486273</v>
+        <v>161.0463704568225</v>
       </c>
       <c r="AD4" t="n">
-        <v>99509.1109668221</v>
+        <v>130121.5712914416</v>
       </c>
       <c r="AE4" t="n">
-        <v>136152.7556568919</v>
+        <v>178038.0743994493</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149536624920751e-06</v>
+        <v>5.418718574845555e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>123158.5277486273</v>
+        <v>161046.3704568225</v>
       </c>
     </row>
     <row r="5">
@@ -14053,28 +14053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.24745220593998</v>
+        <v>129.8599125305594</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.7947425966833</v>
+        <v>177.6800613392408</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.8346829524104</v>
+        <v>160.7225256606056</v>
       </c>
       <c r="AD5" t="n">
-        <v>99247.45220593998</v>
+        <v>129859.9125305594</v>
       </c>
       <c r="AE5" t="n">
-        <v>135794.7425966833</v>
+        <v>177680.0613392408</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.162721811335358e-06</v>
+        <v>5.441403440286492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.571180555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>122834.6829524104</v>
+        <v>160722.5256606056</v>
       </c>
     </row>
   </sheetData>
@@ -14350,28 +14350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.29655867409188</v>
+        <v>125.7664606057765</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.9159792977476</v>
+        <v>172.0792198254022</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.9941735542815</v>
+        <v>155.6562206000155</v>
       </c>
       <c r="AD2" t="n">
-        <v>91296.55867409188</v>
+        <v>125766.4606057765</v>
       </c>
       <c r="AE2" t="n">
-        <v>124915.9792977476</v>
+        <v>172079.2198254022</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.300254541483643e-06</v>
+        <v>6.615889512026694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.534722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>112994.1735542815</v>
+        <v>155656.2206000155</v>
       </c>
     </row>
   </sheetData>
@@ -14647,28 +14647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.264815970332</v>
+        <v>210.0715581603977</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.8591004133872</v>
+        <v>287.4291735779876</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.0171090757643</v>
+        <v>259.9973366611678</v>
       </c>
       <c r="AD2" t="n">
-        <v>167264.815970332</v>
+        <v>210071.5581603977</v>
       </c>
       <c r="AE2" t="n">
-        <v>228859.1004133872</v>
+        <v>287429.1735779876</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.184325514339285e-06</v>
+        <v>3.620930668450022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>207017.1090757643</v>
+        <v>259997.3366611678</v>
       </c>
     </row>
     <row r="3">
@@ -14753,28 +14753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.4459912495257</v>
+        <v>189.1673925850199</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.3738659686695</v>
+        <v>258.8271720110722</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.2504654271638</v>
+        <v>234.1250699806284</v>
       </c>
       <c r="AD3" t="n">
-        <v>146445.9912495257</v>
+        <v>189167.3925850199</v>
       </c>
       <c r="AE3" t="n">
-        <v>200373.8659686695</v>
+        <v>258827.1720110722</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.420947364455626e-06</v>
+        <v>4.013175921406657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>181250.4654271638</v>
+        <v>234125.0699806284</v>
       </c>
     </row>
     <row r="4">
@@ -14859,28 +14859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.4403616142593</v>
+        <v>173.247014295774</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.4742573831648</v>
+        <v>237.0442080782168</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.4409247487589</v>
+        <v>214.4210415529359</v>
       </c>
       <c r="AD4" t="n">
-        <v>130440.3616142593</v>
+        <v>173247.014295774</v>
       </c>
       <c r="AE4" t="n">
-        <v>178474.2573831648</v>
+        <v>237044.2080782168</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.565772542049109e-06</v>
+        <v>4.253250911910344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>161440.9247487589</v>
+        <v>214421.0415529359</v>
       </c>
     </row>
     <row r="5">
@@ -14965,28 +14965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.3778759393084</v>
+        <v>169.0139364202309</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.9157852584808</v>
+        <v>231.252324178686</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.4129454022884</v>
+        <v>209.1819269238143</v>
       </c>
       <c r="AD5" t="n">
-        <v>126377.8759393084</v>
+        <v>169013.9364202309</v>
       </c>
       <c r="AE5" t="n">
-        <v>172915.7852584808</v>
+        <v>231252.324178686</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.687790248030344e-06</v>
+        <v>4.455518225449925e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>156412.9454022884</v>
+        <v>209181.9269238143</v>
       </c>
     </row>
     <row r="6">
@@ -15071,28 +15071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.7912183007114</v>
+        <v>154.8962973203984</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.0083620451873</v>
+        <v>211.9359475360246</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.9738797728583</v>
+        <v>191.7090781572175</v>
       </c>
       <c r="AD6" t="n">
-        <v>122791.2183007114</v>
+        <v>154896.2973203984</v>
       </c>
       <c r="AE6" t="n">
-        <v>168008.3620451873</v>
+        <v>211935.9475360246</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.802893163910449e-06</v>
+        <v>4.64632297291192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>151973.8797728583</v>
+        <v>191709.0781572175</v>
       </c>
     </row>
     <row r="7">
@@ -15177,28 +15177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.9087132196222</v>
+        <v>152.6300250465652</v>
       </c>
       <c r="AB7" t="n">
-        <v>150.3819502572368</v>
+        <v>208.8351338300912</v>
       </c>
       <c r="AC7" t="n">
-        <v>136.0297079871199</v>
+        <v>188.904201759358</v>
       </c>
       <c r="AD7" t="n">
-        <v>109908.7132196222</v>
+        <v>152630.0250465652</v>
       </c>
       <c r="AE7" t="n">
-        <v>150381.9502572368</v>
+        <v>208835.1338300912</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.863561945256749e-06</v>
+        <v>4.746892896923796e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH7" t="n">
-        <v>136029.7079871199</v>
+        <v>188904.201759358</v>
       </c>
     </row>
     <row r="8">
@@ -15283,28 +15283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.4835144033419</v>
+        <v>151.204826230285</v>
       </c>
       <c r="AB8" t="n">
-        <v>148.4319303614688</v>
+        <v>206.8851139343232</v>
       </c>
       <c r="AC8" t="n">
-        <v>134.2657952533333</v>
+        <v>187.1402890255714</v>
       </c>
       <c r="AD8" t="n">
-        <v>108483.5144033419</v>
+        <v>151204.826230285</v>
       </c>
       <c r="AE8" t="n">
-        <v>148431.9303614688</v>
+        <v>206885.1139343232</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.908451402306701e-06</v>
+        <v>4.821305620968457e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>134265.7952533333</v>
+        <v>187140.2890255714</v>
       </c>
     </row>
     <row r="9">
@@ -15389,28 +15389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.2718236386221</v>
+        <v>150.9931354655652</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.142285718042</v>
+        <v>206.5954692908964</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.0037938881562</v>
+        <v>186.8782876603943</v>
       </c>
       <c r="AD9" t="n">
-        <v>108271.8236386221</v>
+        <v>150993.1354655652</v>
       </c>
       <c r="AE9" t="n">
-        <v>148142.285718042</v>
+        <v>206595.4692908964</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.904619928447388e-06</v>
+        <v>4.814954231895959e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>134003.7938881562</v>
+        <v>186878.2876603943</v>
       </c>
     </row>
   </sheetData>
@@ -15686,28 +15686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.7372374331659</v>
+        <v>258.7667069660279</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.7622765084856</v>
+        <v>354.0560244523322</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.1575960839099</v>
+        <v>320.2654143993521</v>
       </c>
       <c r="AD2" t="n">
-        <v>203737.237433166</v>
+        <v>258766.7069660279</v>
       </c>
       <c r="AE2" t="n">
-        <v>278762.2765084855</v>
+        <v>354056.0244523322</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.834115779282228e-06</v>
+        <v>2.979418245031614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.39930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>252157.5960839099</v>
+        <v>320265.4143993521</v>
       </c>
     </row>
     <row r="3">
@@ -15792,28 +15792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.6535503388598</v>
+        <v>221.7454165505143</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.0734250950138</v>
+        <v>303.4018616416213</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.874838559711</v>
+        <v>274.445613793822</v>
       </c>
       <c r="AD3" t="n">
-        <v>177653.5503388598</v>
+        <v>221745.4165505143</v>
       </c>
       <c r="AE3" t="n">
-        <v>243073.4250950138</v>
+        <v>303401.8616416213</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.067328637418224e-06</v>
+        <v>3.358259456886996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.227430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>219874.8385597109</v>
+        <v>274445.6137938219</v>
       </c>
     </row>
     <row r="4">
@@ -15898,28 +15898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.5158907430494</v>
+        <v>202.6930083007244</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.888434942085</v>
+        <v>277.3335161413418</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.1889071161048</v>
+        <v>250.865194600928</v>
       </c>
       <c r="AD4" t="n">
-        <v>158515.8907430494</v>
+        <v>202693.0083007244</v>
       </c>
       <c r="AE4" t="n">
-        <v>216888.4349420849</v>
+        <v>277333.5161413418</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.225022440616709e-06</v>
+        <v>3.614424198330887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>196188.9071161048</v>
+        <v>250865.1946009281</v>
       </c>
     </row>
     <row r="5">
@@ -16004,28 +16004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.9814197574277</v>
+        <v>196.9879451145105</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.3159275759334</v>
+        <v>269.5275970003433</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.3391092248955</v>
+        <v>243.8042614270677</v>
       </c>
       <c r="AD5" t="n">
-        <v>152981.4197574277</v>
+        <v>196987.9451145105</v>
       </c>
       <c r="AE5" t="n">
-        <v>209315.9275759334</v>
+        <v>269527.5970003434</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.350975396117491e-06</v>
+        <v>3.819027712391239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>189339.1092248955</v>
+        <v>243804.2614270677</v>
       </c>
     </row>
     <row r="6">
@@ -16110,28 +16110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.8370243684786</v>
+        <v>181.928801071582</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.594697681213</v>
+        <v>248.9230117582721</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.5954844288918</v>
+        <v>225.1661488817762</v>
       </c>
       <c r="AD6" t="n">
-        <v>137837.0243684786</v>
+        <v>181928.801071582</v>
       </c>
       <c r="AE6" t="n">
-        <v>188594.697681213</v>
+        <v>248923.0117582721</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.450107884463328e-06</v>
+        <v>3.980062881375258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>170595.4844288918</v>
+        <v>225166.1488817762</v>
       </c>
     </row>
     <row r="7">
@@ -16216,28 +16216,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>134.6758628084577</v>
+        <v>178.7676395115611</v>
       </c>
       <c r="AB7" t="n">
-        <v>184.2694569741892</v>
+        <v>244.5977710512484</v>
       </c>
       <c r="AC7" t="n">
-        <v>166.6830386244315</v>
+        <v>221.2537030773159</v>
       </c>
       <c r="AD7" t="n">
-        <v>134675.8628084577</v>
+        <v>178767.6395115611</v>
       </c>
       <c r="AE7" t="n">
-        <v>184269.4569741892</v>
+        <v>244597.7710512484</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.534611027088286e-06</v>
+        <v>4.11733349849946e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>166683.0386244315</v>
+        <v>221253.7030773159</v>
       </c>
     </row>
     <row r="8">
@@ -16322,28 +16322,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.3633725071086</v>
+        <v>175.2845570096198</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.7371616071272</v>
+        <v>239.8320639093396</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.583299166084</v>
+        <v>216.9428283363174</v>
       </c>
       <c r="AD8" t="n">
-        <v>131363.3725071086</v>
+        <v>175284.5570096198</v>
       </c>
       <c r="AE8" t="n">
-        <v>179737.1616071272</v>
+        <v>239832.0639093396</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.61603893187402e-06</v>
+        <v>4.249608564181658e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>162583.299166084</v>
+        <v>216942.8283363174</v>
       </c>
     </row>
     <row r="9">
@@ -16428,28 +16428,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.1688670193973</v>
+        <v>164.237789055276</v>
       </c>
       <c r="AB9" t="n">
-        <v>179.4710306178644</v>
+        <v>224.7173886452072</v>
       </c>
       <c r="AC9" t="n">
-        <v>162.3425673449191</v>
+        <v>203.270676465809</v>
       </c>
       <c r="AD9" t="n">
-        <v>131168.8670193974</v>
+        <v>164237.789055276</v>
       </c>
       <c r="AE9" t="n">
-        <v>179471.0306178644</v>
+        <v>224717.3886452072</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.629613910335736e-06</v>
+        <v>4.271660355547074e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.248263888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>162342.5673449191</v>
+        <v>203270.676465809</v>
       </c>
     </row>
     <row r="10">
@@ -16534,28 +16534,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.7645808289128</v>
+        <v>161.8335028647915</v>
       </c>
       <c r="AB10" t="n">
-        <v>176.1813801824244</v>
+        <v>221.4277382097672</v>
       </c>
       <c r="AC10" t="n">
-        <v>159.3668765299831</v>
+        <v>200.294985650873</v>
       </c>
       <c r="AD10" t="n">
-        <v>128764.5808289128</v>
+        <v>161833.5028647915</v>
       </c>
       <c r="AE10" t="n">
-        <v>176181.3801824244</v>
+        <v>221427.7382097672</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.68879027275623e-06</v>
+        <v>4.367789038295347e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.092013888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>159366.8765299831</v>
+        <v>200294.985650873</v>
       </c>
     </row>
     <row r="11">
@@ -16640,28 +16640,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.4533884111235</v>
+        <v>159.4598242596553</v>
       </c>
       <c r="AB11" t="n">
-        <v>157.9684194680507</v>
+        <v>218.1799664229122</v>
       </c>
       <c r="AC11" t="n">
-        <v>142.8921352241325</v>
+        <v>197.3571766450781</v>
       </c>
       <c r="AD11" t="n">
-        <v>115453.3884111235</v>
+        <v>159459.8242596553</v>
       </c>
       <c r="AE11" t="n">
-        <v>157968.4194680506</v>
+        <v>218179.9664229122</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.741750261544577e-06</v>
+        <v>4.45381957062871e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH11" t="n">
-        <v>142892.1352241325</v>
+        <v>197357.1766450781</v>
       </c>
     </row>
     <row r="12">
@@ -16746,28 +16746,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>114.2558106460439</v>
+        <v>158.2622464945757</v>
       </c>
       <c r="AB12" t="n">
-        <v>156.3298407364674</v>
+        <v>216.5413876913289</v>
       </c>
       <c r="AC12" t="n">
-        <v>141.4099401469313</v>
+        <v>195.8749815678769</v>
       </c>
       <c r="AD12" t="n">
-        <v>114255.8106460439</v>
+        <v>158262.2464945757</v>
       </c>
       <c r="AE12" t="n">
-        <v>156329.8407364674</v>
+        <v>216541.3876913289</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.766681654026856e-06</v>
+        <v>4.494319219819241e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>141409.9401469313</v>
+        <v>195874.9815678769</v>
       </c>
     </row>
     <row r="13">
@@ -16852,28 +16852,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>114.3098869895104</v>
+        <v>158.3163228380422</v>
       </c>
       <c r="AB13" t="n">
-        <v>156.403830375278</v>
+        <v>216.6153773301396</v>
       </c>
       <c r="AC13" t="n">
-        <v>141.476868318459</v>
+        <v>195.9419097394046</v>
       </c>
       <c r="AD13" t="n">
-        <v>114309.8869895104</v>
+        <v>158316.3228380422</v>
       </c>
       <c r="AE13" t="n">
-        <v>156403.830375278</v>
+        <v>216615.3773301396</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.766505926150329e-06</v>
+        <v>4.494033759736841e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>141476.868318459</v>
+        <v>195941.9097394046</v>
       </c>
     </row>
   </sheetData>
@@ -17149,28 +17149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.58305666397113</v>
+        <v>124.1111527514872</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.4127108375565</v>
+        <v>169.8143545921361</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.0617433471349</v>
+        <v>153.6075109258533</v>
       </c>
       <c r="AD2" t="n">
-        <v>94583.05666397113</v>
+        <v>124111.1527514872</v>
       </c>
       <c r="AE2" t="n">
-        <v>129412.7108375565</v>
+        <v>169814.354592136</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.277422769304768e-06</v>
+        <v>5.8045592595643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>117061.7433471349</v>
+        <v>153607.5109258533</v>
       </c>
     </row>
     <row r="3">
@@ -17255,28 +17255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.09285573543643</v>
+        <v>123.6209518229525</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.741996300997</v>
+        <v>169.1436400555765</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.4550408645906</v>
+        <v>153.000808443309</v>
       </c>
       <c r="AD3" t="n">
-        <v>94092.85573543643</v>
+        <v>123620.9518229525</v>
       </c>
       <c r="AE3" t="n">
-        <v>128741.996300997</v>
+        <v>169143.6400555765</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.306704575613288e-06</v>
+        <v>5.856419514376938e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>116455.0408645906</v>
+        <v>153000.808443309</v>
       </c>
     </row>
   </sheetData>
@@ -17552,28 +17552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.093709453468</v>
+        <v>230.0959529132122</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.9391819802986</v>
+        <v>314.8274338927228</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.9442846124344</v>
+        <v>284.7807454651733</v>
       </c>
       <c r="AD2" t="n">
-        <v>176093.709453468</v>
+        <v>230095.9529132122</v>
       </c>
       <c r="AE2" t="n">
-        <v>240939.1819802986</v>
+        <v>314827.4338927228</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046947845184475e-06</v>
+        <v>3.36419166584568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.487847222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>217944.2846124344</v>
+        <v>284780.7454651733</v>
       </c>
     </row>
     <row r="3">
@@ -17658,28 +17658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.3031194476083</v>
+        <v>197.726728830449</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.1243354013127</v>
+        <v>270.5384334733272</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.9749251455375</v>
+        <v>244.7186250857883</v>
       </c>
       <c r="AD3" t="n">
-        <v>154303.1194476083</v>
+        <v>197726.7288304491</v>
       </c>
       <c r="AE3" t="n">
-        <v>211124.3354013127</v>
+        <v>270538.4334733273</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.264715870993393e-06</v>
+        <v>3.722096914500418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>190974.9251455375</v>
+        <v>244718.6250857883</v>
       </c>
     </row>
     <row r="4">
@@ -17764,28 +17764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.4573907383487</v>
+        <v>190.4595446895418</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.70702208333</v>
+        <v>260.5951515262059</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.8879659407008</v>
+        <v>235.7243160122132</v>
       </c>
       <c r="AD4" t="n">
-        <v>136457.3907383487</v>
+        <v>190459.5446895418</v>
       </c>
       <c r="AE4" t="n">
-        <v>186707.02208333</v>
+        <v>260595.1515262059</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436012696801785e-06</v>
+        <v>4.003625999438327e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>168887.9659407008</v>
+        <v>235724.3160122132</v>
       </c>
     </row>
     <row r="5">
@@ -17870,28 +17870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.0855385398671</v>
+        <v>175.4238070681362</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.7252610328638</v>
+        <v>240.0225919826807</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.4770957694348</v>
+        <v>217.1151726777468</v>
       </c>
       <c r="AD5" t="n">
-        <v>132085.5385398671</v>
+        <v>175423.8070681362</v>
       </c>
       <c r="AE5" t="n">
-        <v>180725.2610328638</v>
+        <v>240022.5919826807</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.556162116157984e-06</v>
+        <v>4.201093500237252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.595486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>163477.0957694348</v>
+        <v>217115.1726777468</v>
       </c>
     </row>
     <row r="6">
@@ -17976,28 +17976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.0891001815667</v>
+        <v>172.2567765092436</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.6254018775086</v>
+        <v>235.6893210524787</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.768521417677</v>
+        <v>213.1954630433379</v>
       </c>
       <c r="AD6" t="n">
-        <v>129089.1001815667</v>
+        <v>172256.7765092436</v>
       </c>
       <c r="AE6" t="n">
-        <v>176625.4018775086</v>
+        <v>235689.3210524787</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.63950598712667e-06</v>
+        <v>4.338070491014906e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.361111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>159768.521417677</v>
+        <v>213195.4630433379</v>
       </c>
     </row>
     <row r="7">
@@ -18082,28 +18082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.394168660891</v>
+        <v>157.8979595656439</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.5698335620485</v>
+        <v>216.0429542439596</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.1954494467081</v>
+        <v>195.4241179091686</v>
       </c>
       <c r="AD7" t="n">
-        <v>125394.168660891</v>
+        <v>157897.9595656439</v>
       </c>
       <c r="AE7" t="n">
-        <v>171569.8335620485</v>
+        <v>216042.9542439596</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.744642322611732e-06</v>
+        <v>4.510863747300594e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>155195.4494467081</v>
+        <v>195424.1179091686</v>
       </c>
     </row>
     <row r="8">
@@ -18188,28 +18188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.6100920572156</v>
+        <v>158.1138829619684</v>
       </c>
       <c r="AB8" t="n">
-        <v>171.8652694787677</v>
+        <v>216.3383901606787</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.4626893741826</v>
+        <v>195.691357836643</v>
       </c>
       <c r="AD8" t="n">
-        <v>125610.0920572156</v>
+        <v>158113.8829619685</v>
       </c>
       <c r="AE8" t="n">
-        <v>171865.2694787676</v>
+        <v>216338.3901606787</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.744261961321405e-06</v>
+        <v>4.510238617409797e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>155462.6893741825</v>
+        <v>195691.3578366431</v>
       </c>
     </row>
     <row r="9">
@@ -18294,28 +18294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>111.0313727091989</v>
+        <v>154.2843003828964</v>
       </c>
       <c r="AB9" t="n">
-        <v>151.9180224991161</v>
+        <v>211.0985863267354</v>
       </c>
       <c r="AC9" t="n">
-        <v>137.4191796501256</v>
+        <v>190.9516335264987</v>
       </c>
       <c r="AD9" t="n">
-        <v>111031.3727091989</v>
+        <v>154284.3003828964</v>
       </c>
       <c r="AE9" t="n">
-        <v>151918.0224991161</v>
+        <v>211098.5863267354</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.843469135516077e-06</v>
+        <v>4.673287201868351e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>137419.1796501256</v>
+        <v>190951.6335264987</v>
       </c>
     </row>
     <row r="10">
@@ -18400,28 +18400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>110.8270812797615</v>
+        <v>154.080008953459</v>
       </c>
       <c r="AB10" t="n">
-        <v>151.6385019526581</v>
+        <v>210.8190657802774</v>
       </c>
       <c r="AC10" t="n">
-        <v>137.166336152312</v>
+        <v>190.6987900286851</v>
       </c>
       <c r="AD10" t="n">
-        <v>110827.0812797615</v>
+        <v>154080.0089534589</v>
       </c>
       <c r="AE10" t="n">
-        <v>151638.5019526581</v>
+        <v>210819.0657802774</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.837853212935368e-06</v>
+        <v>4.664057342892461e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>137166.336152312</v>
+        <v>190698.7900286851</v>
       </c>
     </row>
     <row r="11">
@@ -18506,28 +18506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>110.2911283333679</v>
+        <v>153.5440560070654</v>
       </c>
       <c r="AB11" t="n">
-        <v>150.9051874868276</v>
+        <v>210.0857513144469</v>
       </c>
       <c r="AC11" t="n">
-        <v>136.5030081898867</v>
+        <v>190.0354620662598</v>
       </c>
       <c r="AD11" t="n">
-        <v>110291.1283333679</v>
+        <v>153544.0560070654</v>
       </c>
       <c r="AE11" t="n">
-        <v>150905.1874868276</v>
+        <v>210085.7513144469</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.865015483903418e-06</v>
+        <v>4.708698971564695e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>136503.0081898868</v>
+        <v>190035.4620662598</v>
       </c>
     </row>
   </sheetData>
@@ -18803,28 +18803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.0818776731466</v>
+        <v>141.005303593877</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.304684450054</v>
+        <v>192.9296770920154</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.1050794780217</v>
+        <v>174.5167394889104</v>
       </c>
       <c r="AD2" t="n">
-        <v>101081.8776731465</v>
+        <v>141005.3035938769</v>
       </c>
       <c r="AE2" t="n">
-        <v>138304.684450054</v>
+        <v>192929.6770920154</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037689915456617e-06</v>
+        <v>5.297465963889836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>125105.0794780217</v>
+        <v>174516.7394889104</v>
       </c>
     </row>
     <row r="3">
@@ -18909,28 +18909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.99992234114643</v>
+        <v>127.0918382771946</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.7195730816546</v>
+        <v>173.8926600269716</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.0530032998676</v>
+        <v>157.296588613927</v>
       </c>
       <c r="AD3" t="n">
-        <v>96999.92234114643</v>
+        <v>127091.8382771946</v>
       </c>
       <c r="AE3" t="n">
-        <v>132719.5730816546</v>
+        <v>173892.6600269715</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.216047767079532e-06</v>
+        <v>5.608506483054505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>120053.0032998676</v>
+        <v>157296.588613927</v>
       </c>
     </row>
     <row r="4">
@@ -19015,28 +19015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.79766960872996</v>
+        <v>126.8895855447781</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.4428419704017</v>
+        <v>173.6159289157186</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.802683017478</v>
+        <v>157.0462683315374</v>
       </c>
       <c r="AD4" t="n">
-        <v>96797.66960872996</v>
+        <v>126889.5855447781</v>
       </c>
       <c r="AE4" t="n">
-        <v>132442.8419704017</v>
+        <v>173615.9289157186</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.227870038233983e-06</v>
+        <v>5.629123491636556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.553819444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>119802.683017478</v>
+        <v>157046.2683315374</v>
       </c>
     </row>
   </sheetData>
@@ -19312,28 +19312,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.7496075660949</v>
+        <v>167.0993088614918</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.0561607530061</v>
+        <v>228.6326462854139</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.6353622531253</v>
+        <v>206.8122674119343</v>
       </c>
       <c r="AD2" t="n">
-        <v>125749.6075660949</v>
+        <v>167099.3088614918</v>
       </c>
       <c r="AE2" t="n">
-        <v>172056.1607530061</v>
+        <v>228632.6462854139</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.603549100718181e-06</v>
+        <v>4.425860917414578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>155635.3622531253</v>
+        <v>206812.2674119343</v>
       </c>
     </row>
     <row r="3">
@@ -19418,28 +19418,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.332370206188</v>
+        <v>150.3447356862867</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.2758134886543</v>
+        <v>205.7083001075085</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.6929990083857</v>
+        <v>186.075788658719</v>
       </c>
       <c r="AD3" t="n">
-        <v>119332.370206188</v>
+        <v>150344.7356862867</v>
       </c>
       <c r="AE3" t="n">
-        <v>163275.8134886543</v>
+        <v>205708.3001075085</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.824689724426127e-06</v>
+        <v>4.801785321318349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.230902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>147692.9990083857</v>
+        <v>186075.788658719</v>
       </c>
     </row>
     <row r="4">
@@ -19524,28 +19524,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.4127186642754</v>
+        <v>145.6770791051007</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.8620880404478</v>
+        <v>199.321806450658</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.2275308661059</v>
+        <v>180.2988129929761</v>
       </c>
       <c r="AD4" t="n">
-        <v>104412.7186642754</v>
+        <v>145677.0791051007</v>
       </c>
       <c r="AE4" t="n">
-        <v>142862.0880404478</v>
+        <v>199321.806450658</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.993715603851373e-06</v>
+        <v>5.08911811391806e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>129227.5308661059</v>
+        <v>180298.8129929761</v>
       </c>
     </row>
     <row r="5">
@@ -19630,28 +19630,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.9774387048238</v>
+        <v>143.2417991456491</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.5300305629584</v>
+        <v>195.9897489731686</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.2134802776951</v>
+        <v>177.2847624045652</v>
       </c>
       <c r="AD5" t="n">
-        <v>101977.4387048238</v>
+        <v>143241.799145649</v>
       </c>
       <c r="AE5" t="n">
-        <v>139530.0305629584</v>
+        <v>195989.7489731686</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.080722522297163e-06</v>
+        <v>5.237024108772423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.631944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>126213.4802776951</v>
+        <v>177284.7624045652</v>
       </c>
     </row>
     <row r="6">
@@ -19736,28 +19736,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.9121084365694</v>
+        <v>143.1764688773946</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.4406428077648</v>
+        <v>195.900361217975</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.1326235644005</v>
+        <v>177.2039056912707</v>
       </c>
       <c r="AD6" t="n">
-        <v>101912.1084365694</v>
+        <v>143176.4688773946</v>
       </c>
       <c r="AE6" t="n">
-        <v>139440.6428077648</v>
+        <v>195900.361217975</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.085098749130835e-06</v>
+        <v>5.244463404349196e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>126132.6235644005</v>
+        <v>177203.9056912707</v>
       </c>
     </row>
   </sheetData>
@@ -20033,28 +20033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.52345144756977</v>
+        <v>120.433231385603</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.2264240002226</v>
+        <v>164.7820603208967</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.2749898500642</v>
+        <v>149.0554917569901</v>
       </c>
       <c r="AD2" t="n">
-        <v>91523.45144756977</v>
+        <v>120433.231385603</v>
       </c>
       <c r="AE2" t="n">
-        <v>125226.4240002226</v>
+        <v>164782.0603208967</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366545905995224e-06</v>
+        <v>6.070678927738898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>113274.9898500642</v>
+        <v>149055.4917569901</v>
       </c>
     </row>
   </sheetData>
@@ -20330,28 +20330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.74697443970051</v>
+        <v>124.6685155830334</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.0592815516513</v>
+        <v>170.5769630073698</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.600992224653</v>
+        <v>154.2973370642651</v>
       </c>
       <c r="AD2" t="n">
-        <v>87746.97443970051</v>
+        <v>124668.5155830334</v>
       </c>
       <c r="AE2" t="n">
-        <v>120059.2815516513</v>
+        <v>170576.9630073698</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425027853991757e-06</v>
+        <v>6.39000719026802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>108600.992224653</v>
+        <v>154297.3370642651</v>
       </c>
     </row>
   </sheetData>
@@ -34200,28 +34200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.4368286936163</v>
+        <v>214.5125515455542</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.5674322775932</v>
+        <v>293.5055366503562</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.1806457585464</v>
+        <v>265.4937801701407</v>
       </c>
       <c r="AD2" t="n">
-        <v>171436.8286936163</v>
+        <v>214512.5515455542</v>
       </c>
       <c r="AE2" t="n">
-        <v>234567.4322775932</v>
+        <v>293505.5366503563</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.116052745548635e-06</v>
+        <v>3.492418945026072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.236111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>212180.6457585464</v>
+        <v>265493.7801701407</v>
       </c>
     </row>
     <row r="3">
@@ -34306,28 +34306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.3473315768183</v>
+        <v>193.3377135741847</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.7118519194566</v>
+        <v>264.533189170022</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.0790014907197</v>
+        <v>239.2865128703752</v>
       </c>
       <c r="AD3" t="n">
-        <v>150347.3315768183</v>
+        <v>193337.7135741847</v>
       </c>
       <c r="AE3" t="n">
-        <v>205711.8519194566</v>
+        <v>264533.189170022</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.341028181922855e-06</v>
+        <v>3.863727494783003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.350694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>186079.0014907197</v>
+        <v>239286.5128703752</v>
       </c>
     </row>
     <row r="4">
@@ -34412,28 +34412,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.4266436848362</v>
+        <v>176.5022770282231</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.5602202575929</v>
+        <v>241.4982021608076</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.1369290611379</v>
+        <v>218.4499526915056</v>
       </c>
       <c r="AD4" t="n">
-        <v>133426.6436848362</v>
+        <v>176502.2770282232</v>
       </c>
       <c r="AE4" t="n">
-        <v>182560.2202575929</v>
+        <v>241498.2021608076</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499614470506164e-06</v>
+        <v>4.125464712739791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.821180555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>165136.9290611379</v>
+        <v>218449.9526915056</v>
       </c>
     </row>
     <row r="5">
@@ -34518,28 +34518,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.3135918368667</v>
+        <v>172.2186329796615</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.9325612641628</v>
+        <v>235.6371313925306</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.04636594357</v>
+        <v>213.1482542912866</v>
       </c>
       <c r="AD5" t="n">
-        <v>129313.5918368667</v>
+        <v>172218.6329796615</v>
       </c>
       <c r="AE5" t="n">
-        <v>176932.5612641629</v>
+        <v>235637.1313925307</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.61802496544667e-06</v>
+        <v>4.320894177666911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.465277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>160046.36594357</v>
+        <v>213148.2542912866</v>
       </c>
     </row>
     <row r="6">
@@ -34624,28 +34624,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.2517114733004</v>
+        <v>158.5585259893917</v>
       </c>
       <c r="AB6" t="n">
-        <v>172.7431614701054</v>
+        <v>216.9467703670647</v>
       </c>
       <c r="AC6" t="n">
-        <v>156.2567965859965</v>
+        <v>196.2416750899988</v>
       </c>
       <c r="AD6" t="n">
-        <v>126251.7114733004</v>
+        <v>158558.5259893917</v>
       </c>
       <c r="AE6" t="n">
-        <v>172743.1614701054</v>
+        <v>216946.7703670647</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.70646125560098e-06</v>
+        <v>4.466853003982774e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>156256.7965859965</v>
+        <v>196241.6750899988</v>
       </c>
     </row>
     <row r="7">
@@ -34730,28 +34730,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.5962204177502</v>
+        <v>154.5865129065655</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.6908720532778</v>
+        <v>211.5120868342948</v>
       </c>
       <c r="AC7" t="n">
-        <v>138.1182695275396</v>
+        <v>191.3256701259685</v>
       </c>
       <c r="AD7" t="n">
-        <v>111596.2204177502</v>
+        <v>154586.5129065655</v>
       </c>
       <c r="AE7" t="n">
-        <v>152690.8720532778</v>
+        <v>211512.0868342948</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.818048171240045e-06</v>
+        <v>4.651020557941292e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>138118.2695275396</v>
+        <v>191325.6701259685</v>
       </c>
     </row>
     <row r="8">
@@ -34836,28 +34836,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.1249478912088</v>
+        <v>154.1152403800241</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.0460561913876</v>
+        <v>210.8672709724047</v>
       </c>
       <c r="AC8" t="n">
-        <v>137.5349939865032</v>
+        <v>190.7423945849321</v>
       </c>
       <c r="AD8" t="n">
-        <v>111124.9478912088</v>
+        <v>154115.2403800241</v>
       </c>
       <c r="AE8" t="n">
-        <v>152046.0561913876</v>
+        <v>210867.2709724047</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.830839567422284e-06</v>
+        <v>4.672131995004548e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>137534.9939865032</v>
+        <v>190742.3945849321</v>
       </c>
     </row>
     <row r="9">
@@ -34942,28 +34942,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.2234293192247</v>
+        <v>152.21372180804</v>
       </c>
       <c r="AB9" t="n">
-        <v>149.4443145921215</v>
+        <v>208.2655293731385</v>
       </c>
       <c r="AC9" t="n">
-        <v>135.1815589539029</v>
+        <v>188.3889595523318</v>
       </c>
       <c r="AD9" t="n">
-        <v>109223.4293192247</v>
+        <v>152213.72180804</v>
       </c>
       <c r="AE9" t="n">
-        <v>149444.3145921215</v>
+        <v>208265.5293731385</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.886148843872242e-06</v>
+        <v>4.763416659489335e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>135181.5589539029</v>
+        <v>188388.9595523318</v>
       </c>
     </row>
     <row r="10">
@@ -35048,28 +35048,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>109.2935220696668</v>
+        <v>152.2838145584821</v>
       </c>
       <c r="AB10" t="n">
-        <v>149.5402185855502</v>
+        <v>208.3614333665672</v>
       </c>
       <c r="AC10" t="n">
-        <v>135.268310004801</v>
+        <v>188.4757106032299</v>
       </c>
       <c r="AD10" t="n">
-        <v>109293.5220696668</v>
+        <v>152283.8145584821</v>
       </c>
       <c r="AE10" t="n">
-        <v>149540.2185855502</v>
+        <v>208361.4333665672</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.884414798967255e-06</v>
+        <v>4.760554721718436e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>135268.310004801</v>
+        <v>188475.7106032299</v>
       </c>
     </row>
   </sheetData>
@@ -35345,28 +35345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.09656662565575</v>
+        <v>120.8785163570545</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.4328766527367</v>
+        <v>165.3913188634228</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.3206863195984</v>
+        <v>149.6066035193175</v>
       </c>
       <c r="AD2" t="n">
-        <v>85096.56662565576</v>
+        <v>120878.5163570545</v>
       </c>
       <c r="AE2" t="n">
-        <v>116432.8766527367</v>
+        <v>165391.3188634228</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.418647843742061e-06</v>
+        <v>6.574186579311678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>105320.6863195984</v>
+        <v>149606.6035193175</v>
       </c>
     </row>
   </sheetData>
@@ -35642,28 +35642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.78493617396428</v>
+        <v>132.3079518283538</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.1619077569672</v>
+        <v>181.0295767063529</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.2622449816074</v>
+        <v>163.752367982156</v>
       </c>
       <c r="AD2" t="n">
-        <v>98784.93617396428</v>
+        <v>132307.9518283538</v>
       </c>
       <c r="AE2" t="n">
-        <v>135161.9077569672</v>
+        <v>181029.5767063529</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.111891676799362e-06</v>
+        <v>6.41858566072073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>122262.2449816074</v>
+        <v>163752.367982156</v>
       </c>
     </row>
   </sheetData>
@@ -35939,28 +35939,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.52656365213349</v>
+        <v>137.0821266783109</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.4401469571216</v>
+        <v>187.5618133577904</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.704806615992</v>
+        <v>169.661177135634</v>
       </c>
       <c r="AD2" t="n">
-        <v>97526.5636521335</v>
+        <v>137082.1266783109</v>
       </c>
       <c r="AE2" t="n">
-        <v>133440.1469571216</v>
+        <v>187561.8133577904</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.166220618156731e-06</v>
+        <v>5.562924725740527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>120704.806615992</v>
+        <v>169661.177135634</v>
       </c>
     </row>
     <row r="3">
@@ -36045,28 +36045,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.56406797794938</v>
+        <v>125.3800867430828</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.7549737965056</v>
+        <v>171.550566060853</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.2759026131601</v>
+        <v>155.1780208087845</v>
       </c>
       <c r="AD3" t="n">
-        <v>95564.06797794938</v>
+        <v>125380.0867430828</v>
       </c>
       <c r="AE3" t="n">
-        <v>130754.9737965056</v>
+        <v>171550.566060853</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.256991452157289e-06</v>
+        <v>5.722405500372006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>118275.9026131601</v>
+        <v>155178.0208087845</v>
       </c>
     </row>
   </sheetData>
@@ -36342,28 +36342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6895950998613</v>
+        <v>162.721222189523</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.5010725815994</v>
+        <v>222.6423549532769</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.6104439001807</v>
+        <v>201.3936810771079</v>
       </c>
       <c r="AD2" t="n">
-        <v>121689.5950998613</v>
+        <v>162721.222189523</v>
       </c>
       <c r="AE2" t="n">
-        <v>166501.0725815994</v>
+        <v>222642.3549532769</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.714643682303063e-06</v>
+        <v>4.641738170343292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.586805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>150610.4439001807</v>
+        <v>201393.6810771079</v>
       </c>
     </row>
     <row r="3">
@@ -36448,28 +36448,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.0573961016922</v>
+        <v>146.8312059274895</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.7948494372249</v>
+        <v>200.9009336855315</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.6396918769508</v>
+        <v>181.7272305408727</v>
       </c>
       <c r="AD3" t="n">
-        <v>116057.3961016922</v>
+        <v>146831.2059274895</v>
       </c>
       <c r="AE3" t="n">
-        <v>158794.8494372249</v>
+        <v>200900.9336855315</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.922653992862924e-06</v>
+        <v>4.997412620233353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>143639.6918769508</v>
+        <v>181727.2305408727</v>
       </c>
     </row>
     <row r="4">
@@ -36554,28 +36554,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.7575070983722</v>
+        <v>142.7037933334622</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.2291104363138</v>
+        <v>195.2536256857937</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.9412795455932</v>
+        <v>176.6188936905816</v>
       </c>
       <c r="AD4" t="n">
-        <v>101757.5070983722</v>
+        <v>142703.7933334622</v>
       </c>
       <c r="AE4" t="n">
-        <v>139229.1104363138</v>
+        <v>195253.6256857937</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075364117072986e-06</v>
+        <v>5.258529914250498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>125941.2795455932</v>
+        <v>176618.8936905816</v>
       </c>
     </row>
     <row r="5">
@@ -36660,28 +36660,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.4590731066763</v>
+        <v>131.3181342784942</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.4525357660116</v>
+        <v>179.6752646669673</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.3342586683858</v>
+        <v>162.52730958302</v>
       </c>
       <c r="AD5" t="n">
-        <v>100459.0731066763</v>
+        <v>131318.1342784942</v>
       </c>
       <c r="AE5" t="n">
-        <v>137452.5357660115</v>
+        <v>179675.2646669673</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.129217151399045e-06</v>
+        <v>5.350612601436908e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>124334.2586683858</v>
+        <v>162527.30958302</v>
       </c>
     </row>
     <row r="6">
@@ -36766,28 +36766,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.5144416516069</v>
+        <v>131.3735028234248</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.5282934518734</v>
+        <v>179.7510223528291</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.4027861470356</v>
+        <v>162.5958370616698</v>
       </c>
       <c r="AD6" t="n">
-        <v>100514.4416516069</v>
+        <v>131373.5028234248</v>
       </c>
       <c r="AE6" t="n">
-        <v>137528.2934518734</v>
+        <v>179751.0223528291</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.128529161092677e-06</v>
+        <v>5.349436214684306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>124402.7861470356</v>
+        <v>162595.8370616698</v>
       </c>
     </row>
   </sheetData>
@@ -37063,28 +37063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.5824263240077</v>
+        <v>189.7450702352646</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.9287865735521</v>
+        <v>259.6175760574761</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6569865918615</v>
+        <v>234.8400389741827</v>
       </c>
       <c r="AD2" t="n">
-        <v>147582.4263240077</v>
+        <v>189745.0702352647</v>
       </c>
       <c r="AE2" t="n">
-        <v>201928.7865735521</v>
+        <v>259617.576057476</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351029338716851e-06</v>
+        <v>3.933913249525801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>182656.9865918615</v>
+        <v>234840.0389741827</v>
       </c>
     </row>
     <row r="3">
@@ -37169,28 +37169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.1716743145989</v>
+        <v>171.4195695718764</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.7383834492368</v>
+        <v>234.54381758581</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.8707201867701</v>
+        <v>212.1592848198036</v>
       </c>
       <c r="AD3" t="n">
-        <v>129171.6743145989</v>
+        <v>171419.5695718764</v>
       </c>
       <c r="AE3" t="n">
-        <v>176738.3834492368</v>
+        <v>234543.81758581</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.565963249626419e-06</v>
+        <v>4.293556298625743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>159870.7201867701</v>
+        <v>212159.2848198035</v>
       </c>
     </row>
     <row r="4">
@@ -37275,28 +37275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.1551306201253</v>
+        <v>166.2324336768106</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.8745270521733</v>
+        <v>227.4465494138996</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.6619406107571</v>
+        <v>205.7393699611395</v>
       </c>
       <c r="AD4" t="n">
-        <v>124155.1306201253</v>
+        <v>166232.4336768106</v>
       </c>
       <c r="AE4" t="n">
-        <v>169874.5270521733</v>
+        <v>227446.5494138997</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.723162987419392e-06</v>
+        <v>4.556594331006605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>153661.9406107572</v>
+        <v>205739.3699611395</v>
       </c>
     </row>
     <row r="5">
@@ -37381,28 +37381,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.7023665053721</v>
+        <v>151.864920908078</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.0996175794255</v>
+        <v>207.7882845938011</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.7743207438224</v>
+        <v>187.957262344917</v>
       </c>
       <c r="AD5" t="n">
-        <v>109702.3665053721</v>
+        <v>151864.920908078</v>
       </c>
       <c r="AE5" t="n">
-        <v>150099.6175794255</v>
+        <v>207788.2845938011</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.851875014940976e-06</v>
+        <v>4.771964655018315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.996527777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>135774.3207438224</v>
+        <v>187957.262344917</v>
       </c>
     </row>
     <row r="6">
@@ -37487,28 +37487,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.0631026581731</v>
+        <v>148.225657060879</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.1202162307006</v>
+        <v>202.8088832450763</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.2701464711846</v>
+        <v>183.4530880722792</v>
       </c>
       <c r="AD6" t="n">
-        <v>106063.1026581731</v>
+        <v>148225.657060879</v>
       </c>
       <c r="AE6" t="n">
-        <v>145120.2162307006</v>
+        <v>202808.8832450763</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.965388998484037e-06</v>
+        <v>4.961904506687808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.727430555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>131270.1464711846</v>
+        <v>183453.0880722792</v>
       </c>
     </row>
     <row r="7">
@@ -37593,28 +37593,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.5988235793084</v>
+        <v>147.7613779820143</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.4849691124509</v>
+        <v>202.1736361268265</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.6955264463254</v>
+        <v>182.87846804742</v>
       </c>
       <c r="AD7" t="n">
-        <v>105598.8235793084</v>
+        <v>147761.3779820143</v>
       </c>
       <c r="AE7" t="n">
-        <v>144484.9691124509</v>
+        <v>202173.6361268265</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.976793279593488e-06</v>
+        <v>4.980986979126144e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>130695.5264463254</v>
+        <v>182878.46804742</v>
       </c>
     </row>
     <row r="8">
@@ -37699,28 +37699,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>105.6554045340267</v>
+        <v>147.8179589367326</v>
       </c>
       <c r="AB8" t="n">
-        <v>144.562385670872</v>
+        <v>202.2510526852476</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.7655544770657</v>
+        <v>182.9484960781603</v>
       </c>
       <c r="AD8" t="n">
-        <v>105655.4045340267</v>
+        <v>147817.9589367326</v>
       </c>
       <c r="AE8" t="n">
-        <v>144562.385670872</v>
+        <v>202251.0526852476</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.97541372945928e-06</v>
+        <v>4.978678615524733e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>130765.5544770657</v>
+        <v>182948.4960781603</v>
       </c>
     </row>
   </sheetData>
